--- a/btree/Book1.xlsx
+++ b/btree/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>n</t>
   </si>
@@ -36,18 +36,12 @@
     <t xml:space="preserve">n/(2^row-1) + ( (2^row-2) * col) </t>
   </si>
   <si>
-    <t>x(y)</t>
-  </si>
-  <si>
     <t>2^(n-y)</t>
   </si>
   <si>
     <t>y=</t>
   </si>
   <si>
-    <t>n/x(col) + (n/x(row-1) * col)</t>
-  </si>
-  <si>
     <t>16 / 2</t>
   </si>
   <si>
@@ -73,6 +67,27 @@
   </si>
   <si>
     <t>(16 / 8) * 5</t>
+  </si>
+  <si>
+    <t>x(n, y)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>16 / ( 2 ^ (row-1) )</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>16 / ( 2 ^ (row-2) ) * (col-1)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,9 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -305,6 +317,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU39"/>
+  <dimension ref="A1:CY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,12 +666,15 @@
     <col min="28" max="28" width="3.42578125" style="2"/>
     <col min="29" max="29" width="3.42578125" style="1"/>
     <col min="30" max="30" width="3.42578125" style="2"/>
-    <col min="31" max="43" width="3.42578125" style="1"/>
-    <col min="44" max="44" width="3.28515625" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="3.42578125" style="1"/>
+    <col min="31" max="33" width="3.42578125" style="1"/>
+    <col min="34" max="43" width="3.42578125" style="3"/>
+    <col min="44" max="44" width="3.28515625" style="3" customWidth="1"/>
+    <col min="45" max="51" width="3.42578125" style="3"/>
+    <col min="52" max="67" width="3.42578125" style="17"/>
+    <col min="68" max="16384" width="3.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -751,100 +774,152 @@
       <c r="AG1" s="1">
         <v>33</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="3">
         <v>34</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="3">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="3">
         <v>36</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="3">
         <v>37</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="AN2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="4"/>
-      <c r="AQ2" s="1" t="s">
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="BX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="3"/>
+      <c r="CA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="AN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="1" t="s">
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="BX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1">
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="BW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="1">
         <v>3</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="CL6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+    </row>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AK9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="BX9" s="1">
         <v>4</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="CP9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="AM10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO10" s="1">
+      <c r="AK10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="BW10" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY10" s="1">
         <v>6</v>
       </c>
-      <c r="AX10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="CH10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -857,46 +932,84 @@
       <c r="G11" s="1">
         <v>7</v>
       </c>
-      <c r="AL11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="1">
+      <c r="AK11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="BV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="1">
         <v>3</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="BY11" s="1">
         <v>5</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="BZ11" s="1">
         <v>7</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="CE11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+    </row>
+    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="AM13" s="3">
+        <f>(AM9/(POWER(2,(AM11-1))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU13" s="3">
+        <f>(AM9/(POWER(2,(AM11-2)))) * (AM10-1)</f>
+        <v>2</v>
+      </c>
+      <c r="BB13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE13" s="17">
+        <f>(AM13+AU13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>8</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AK14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX14" s="1">
         <v>8</v>
       </c>
-      <c r="AV14" s="4"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="CF14" s="3"/>
+    </row>
+    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <v>4</v>
       </c>
       <c r="L15" s="2">
         <v>12</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="BX15" s="1">
         <v>4</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="BY15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -909,23 +1022,23 @@
       <c r="N16" s="2">
         <v>14</v>
       </c>
-      <c r="AM16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="6">
+      <c r="BW16" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX16" s="5">
         <v>6</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="BY16" s="1">
         <v>10</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="BZ16" s="1">
         <v>14</v>
       </c>
-      <c r="AU16" s="4" t="s">
+      <c r="CE16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -950,75 +1063,72 @@
       <c r="O17" s="1">
         <v>15</v>
       </c>
-      <c r="AK17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="1">
+      <c r="BU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV17" s="1">
         <v>3</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="BW17" s="4">
         <v>5</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="BX17" s="1">
         <v>7</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="BY17" s="1">
         <v>9</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="BZ17" s="1">
         <v>11</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="CA17" s="1">
         <v>13</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="CB17" s="1">
         <v>15</v>
       </c>
-      <c r="AU17" s="4"/>
-    </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="CE17" s="3"/>
+    </row>
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="P20" s="2">
         <v>16</v>
       </c>
-      <c r="BK20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU20" s="4"/>
-    </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="CU20" s="3"/>
+    </row>
+    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
       <c r="H21" s="2">
         <v>8</v>
       </c>
       <c r="X21" s="2">
         <v>24</v>
       </c>
-      <c r="AK21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT21" s="4"/>
-    </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BU21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD21" s="3"/>
+    </row>
+    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="L22" s="2">
         <v>12</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="20">
         <v>20</v>
       </c>
       <c r="AB22" s="2">
         <v>28</v>
       </c>
-      <c r="AK22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="BU22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>2</v>
       </c>
       <c r="F23" s="2">
@@ -1043,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1059,7 +1169,7 @@
       <c r="I24" s="1">
         <v>9</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="10">
         <v>11</v>
       </c>
       <c r="M24" s="1">
@@ -1093,226 +1203,242 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AK25" s="4" t="s">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BU25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP25" s="7"/>
+      <c r="CQ25" s="7"/>
+      <c r="CR25" s="7"/>
+      <c r="CS25" s="7"/>
+      <c r="CT25" s="7"/>
+      <c r="CU25" s="7"/>
+      <c r="CV25" s="7"/>
+      <c r="CW25" s="7"/>
+      <c r="CX25" s="8"/>
+    </row>
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV26" s="3"/>
+      <c r="CL26" s="10"/>
+      <c r="CM26" s="10"/>
+      <c r="CO26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP26" s="10"/>
+      <c r="CQ26" s="10"/>
+      <c r="CR26" s="10"/>
+      <c r="CS26" s="10"/>
+      <c r="CT26" s="10"/>
+      <c r="CU26" s="10"/>
+      <c r="CV26" s="10"/>
+      <c r="CW26" s="10"/>
+      <c r="CX26" s="10"/>
+      <c r="CY26" s="16"/>
+    </row>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV27" s="3"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CO27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="10"/>
+      <c r="CT27" s="10"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="10"/>
+      <c r="CY27" s="15"/>
+    </row>
+    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BU28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BE25" s="7" t="s">
+      <c r="BZ28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CO28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP28" s="10"/>
+      <c r="CQ28" s="10"/>
+      <c r="CR28" s="10"/>
+      <c r="CS28" s="10"/>
+      <c r="CT28" s="10"/>
+      <c r="CU28" s="10"/>
+      <c r="CV28" s="10"/>
+      <c r="CW28" s="10"/>
+      <c r="CX28" s="10"/>
+      <c r="CY28" s="15"/>
+    </row>
+    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="BU29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>10</v>
+      </c>
+      <c r="CP29" s="12"/>
+      <c r="CQ29" s="13"/>
+      <c r="CR29" s="13"/>
+      <c r="CS29" s="13"/>
+      <c r="CT29" s="13"/>
+      <c r="CU29" s="13"/>
+      <c r="CV29" s="13"/>
+      <c r="CW29" s="13"/>
+      <c r="CX29" s="13"/>
+      <c r="CY29" s="14"/>
+    </row>
+    <row r="33" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="9"/>
-    </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL26" s="4"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BE26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="17"/>
-    </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL27" s="4"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
-      <c r="BE27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="11"/>
-      <c r="BH27" s="11"/>
-      <c r="BI27" s="11"/>
-      <c r="BJ27" s="11"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="11"/>
-      <c r="BM27" s="11"/>
-      <c r="BN27" s="11"/>
-      <c r="BO27" s="16"/>
-    </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AK28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN28" s="1" t="s">
+      <c r="BZ33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA33" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ34" s="1">
+        <f>(2^(BU34-$CA$33))</f>
+        <v>1</v>
+      </c>
+      <c r="CC34" s="1">
+        <f>(2^(BU34-$CD$33))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ35" s="1">
+        <f>(2^(BU35-$CA$33))</f>
+        <v>2</v>
+      </c>
+      <c r="CC35" s="1">
+        <f>(2^(BU35-$CD$33))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU36" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ36" s="1">
+        <f>(2^(BU36-$CA$33))</f>
+        <v>4</v>
+      </c>
+      <c r="CC36" s="1">
+        <f>(2^(BU36-$CD$33))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU37" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ37" s="1">
+        <f>(2^(BU37-$CA$33))</f>
+        <v>8</v>
+      </c>
+      <c r="CC37" s="1">
+        <f>(2^(BU37-$CD$33))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU38" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ38" s="1">
+        <f>(2^(BU38-$CA$33))</f>
         <v>16</v>
       </c>
-      <c r="AP28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF28" s="11"/>
-      <c r="BG28" s="11"/>
-      <c r="BH28" s="11"/>
-      <c r="BI28" s="11"/>
-      <c r="BJ28" s="11"/>
-      <c r="BK28" s="11"/>
-      <c r="BL28" s="11"/>
-      <c r="BM28" s="11"/>
-      <c r="BN28" s="11"/>
-      <c r="BO28" s="16"/>
-    </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="AK29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="1" t="s">
+      <c r="CC38" s="1">
+        <f>(2^(BU38-$CD$33))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU39" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ39" s="1">
+        <f>(2^(BU39-$CA$33))</f>
+        <v>32</v>
+      </c>
+      <c r="CC39" s="1">
+        <f>(2^(BU39-$CD$33))</f>
         <v>16</v>
       </c>
-      <c r="AP29" s="1">
-        <v>10</v>
-      </c>
-      <c r="BF29" s="13"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="14"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="14"/>
-      <c r="BM29" s="14"/>
-      <c r="BN29" s="14"/>
-      <c r="BO29" s="15"/>
-    </row>
-    <row r="33" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="1" t="s">
+    </row>
+    <row r="40" spans="73:82" x14ac:dyDescent="0.25">
+      <c r="BU40" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AP33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP34" s="1">
-        <f>(2^(AK34-$AQ$33))</f>
-        <v>1</v>
-      </c>
-      <c r="AS34" s="1">
-        <f>(2^(AK34-$AT$33))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK35" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP35" s="1">
-        <f>(2^(AK35-$AQ$33))</f>
-        <v>2</v>
-      </c>
-      <c r="AS35" s="1">
-        <f>(2^(AK35-$AT$33))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK36" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP36" s="1">
-        <f>(2^(AK36-$AQ$33))</f>
-        <v>4</v>
-      </c>
-      <c r="AS36" s="1">
-        <f>(2^(AK36-$AT$33))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK37" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP37" s="1">
-        <f>(2^(AK37-$AQ$33))</f>
-        <v>8</v>
-      </c>
-      <c r="AS37" s="1">
-        <f>(2^(AK37-$AT$33))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK38" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP38" s="1">
-        <f>(2^(AK38-$AQ$33))</f>
-        <v>16</v>
-      </c>
-      <c r="AS38" s="1">
-        <f>(2^(AK38-$AT$33))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="37:46" x14ac:dyDescent="0.25">
-      <c r="AK39" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP39" s="1">
-        <f>(2^(AK39-$AQ$33))</f>
+      <c r="BZ40" s="1">
+        <f>(2^(BU40-$CA$33))</f>
+        <v>64</v>
+      </c>
+      <c r="CC40" s="1">
+        <f>(2^(BU40-$CD$33))</f>
         <v>32</v>
-      </c>
-      <c r="AS39" s="1">
-        <f>(2^(AK39-$AT$33))</f>
-        <v>16</v>
       </c>
     </row>
   </sheetData>
